--- a/99-outline.xlsx
+++ b/99-outline.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="17540" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="outline.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -159,8 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,7 +253,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -283,6 +293,11 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -322,6 +337,11 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,7 +620,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +694,7 @@
         <v>11.25</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D14" si="1">D3+B4</f>
+        <f t="shared" ref="D4:D7" si="1">D3+B4</f>
         <v>12</v>
       </c>
       <c r="E4">
@@ -683,10 +703,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -694,7 +714,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12.45</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -702,18 +722,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.45</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13.45</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -724,15 +744,15 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13.45</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -740,18 +760,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>15.25</v>
+        <f t="shared" ref="D8:D9" si="2">D7+B8</f>
+        <v>15.2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -759,18 +779,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>15.25</v>
+        <v>15.2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>15.75</v>
+        <f t="shared" si="2"/>
+        <v>15.45</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -785,11 +805,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>15.75</v>
+        <v>15.45</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" ref="D10:D15" si="3">D9+B10</f>
+        <v>16.2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -797,18 +817,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>16.75</v>
+        <f t="shared" si="3"/>
+        <v>16.95</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -816,18 +836,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>16.75</v>
+        <v>16.95</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="3"/>
+        <v>17.2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -842,11 +862,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>17.75</v>
+        <f t="shared" si="3"/>
+        <v>17.45</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -861,11 +881,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>17.75</v>
+        <v>17.45</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17.7</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -880,11 +900,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15" si="2">D14+B15</f>
-        <v>18.05</v>
+        <f t="shared" si="3"/>
+        <v>17.75</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -935,7 +955,7 @@
         <v>0.75</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C30" si="3">D19</f>
+        <f t="shared" ref="C20:C30" si="4">D19</f>
         <v>11.5</v>
       </c>
       <c r="D20">
@@ -954,11 +974,11 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D23" si="4">D20+B21</f>
+        <f t="shared" ref="D21:D22" si="5">D20+B21</f>
         <v>13.25</v>
       </c>
       <c r="E21">
@@ -973,11 +993,11 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C22:C30" si="6">D21</f>
         <v>13.25</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D22:D30" si="7">D21+B22</f>
         <v>14.25</v>
       </c>
       <c r="E22">
@@ -986,18 +1006,18 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.25</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
-        <v>15.25</v>
+        <f t="shared" si="7"/>
+        <v>14.5</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1005,17 +1025,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
-        <v>15.25</v>
+        <f t="shared" si="6"/>
+        <v>14.5</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D26" si="5">D23+B24</f>
+        <f t="shared" si="7"/>
         <v>15.5</v>
       </c>
       <c r="E24">
@@ -1030,11 +1050,11 @@
         <v>0.5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E25">
@@ -1049,11 +1069,11 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.5</v>
       </c>
       <c r="E26">
@@ -1068,11 +1088,11 @@
         <v>0.25</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D30" si="6">D26+B27</f>
+        <f t="shared" si="7"/>
         <v>16.75</v>
       </c>
       <c r="E27">
@@ -1087,11 +1107,11 @@
         <v>0.25</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.75</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="E28">
@@ -1106,11 +1126,11 @@
         <v>0.75</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.75</v>
       </c>
       <c r="E29">
@@ -1125,11 +1145,11 @@
         <v>0.25</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17.75</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="E30">

--- a/99-outline.xlsx
+++ b/99-outline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -159,8 +159,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,7 +257,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -298,6 +302,8 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +348,8 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +628,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,11 +793,11 @@
         <v>0.25</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:C15" si="3">D8</f>
         <v>15.2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:D15" si="4">D8+B9</f>
         <v>15.45</v>
       </c>
       <c r="E9">
@@ -804,11 +812,11 @@
         <v>0.75</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.45</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D15" si="3">D9+B10</f>
+        <f t="shared" si="4"/>
         <v>16.2</v>
       </c>
       <c r="E10">
@@ -817,18 +825,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>16.95</v>
+        <f t="shared" si="4"/>
+        <v>16.45</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -842,12 +850,12 @@
         <v>0.25</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>16.95</v>
+        <f t="shared" si="3"/>
+        <v>16.45</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>17.2</v>
+        <f t="shared" si="4"/>
+        <v>16.7</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -855,17 +863,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>17.2</v>
+        <f t="shared" si="3"/>
+        <v>16.7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.45</v>
       </c>
       <c r="E13">
@@ -880,11 +888,11 @@
         <v>0.25</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.45</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
       <c r="E14">
@@ -899,11 +907,11 @@
         <v>0.05</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.7</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.75</v>
       </c>
       <c r="E15">
@@ -955,7 +963,7 @@
         <v>0.75</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C30" si="4">D19</f>
+        <f t="shared" ref="C20:C21" si="5">D19</f>
         <v>11.5</v>
       </c>
       <c r="D20">
@@ -974,11 +982,11 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D22" si="5">D20+B21</f>
+        <f t="shared" ref="D21" si="6">D20+B21</f>
         <v>13.25</v>
       </c>
       <c r="E21">
@@ -993,11 +1001,11 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C30" si="6">D21</f>
+        <f t="shared" ref="C22:C30" si="7">D21</f>
         <v>13.25</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D30" si="7">D21+B22</f>
+        <f t="shared" ref="D22:D30" si="8">D21+B22</f>
         <v>14.25</v>
       </c>
       <c r="E22">
@@ -1012,11 +1020,11 @@
         <v>0.25</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.25</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.5</v>
       </c>
       <c r="E23">
@@ -1031,11 +1039,11 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.5</v>
       </c>
       <c r="E24">
@@ -1050,11 +1058,11 @@
         <v>0.5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="E25">
@@ -1069,11 +1077,11 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="D26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.5</v>
       </c>
       <c r="E26">
@@ -1088,11 +1096,11 @@
         <v>0.25</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.75</v>
       </c>
       <c r="E27">
@@ -1107,11 +1115,11 @@
         <v>0.25</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.75</v>
       </c>
       <c r="D28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E28">
@@ -1126,11 +1134,11 @@
         <v>0.75</v>
       </c>
       <c r="C29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="D29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.75</v>
       </c>
       <c r="E29">
@@ -1145,11 +1153,11 @@
         <v>0.25</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.75</v>
       </c>
       <c r="D30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E30">

--- a/99-outline.xlsx
+++ b/99-outline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="460" windowWidth="17540" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="outline.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>break</t>
   </si>
@@ -59,15 +59,6 @@
     <t>extras-summary-questions</t>
   </si>
   <si>
-    <t>ggplot</t>
-  </si>
-  <si>
-    <t>dplyr</t>
-  </si>
-  <si>
-    <t>random-intercepts</t>
-  </si>
-  <si>
     <t>random-slopes</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>binomial-glmm</t>
   </si>
   <si>
-    <t>poisson-negbin-glmm</t>
-  </si>
-  <si>
     <t>zero-inflation</t>
   </si>
   <si>
@@ -111,6 +99,15 @@
   </si>
   <si>
     <t>introduction</t>
+  </si>
+  <si>
+    <t>regression warmup</t>
+  </si>
+  <si>
+    <t>random-intercepts / Cis</t>
+  </si>
+  <si>
+    <t>GLM practice</t>
   </si>
 </sst>
 </file>
@@ -159,8 +156,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -257,7 +256,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -304,6 +303,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -350,6 +350,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,12 +651,12 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -673,7 +674,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.75</v>
@@ -692,475 +693,456 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C15" si="0">D3</f>
+        <f t="shared" ref="C4:C14" si="0">D3</f>
         <v>11.25</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D7" si="1">D3+B4</f>
-        <v>12</v>
+        <f t="shared" ref="D4:D14" si="1">D3+B4</f>
+        <v>11.7</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>12.45</v>
+        <v>12.7</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>12.45</v>
+        <v>12.7</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>13.45</v>
+        <v>13.95</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>13.45</v>
+        <v>13.95</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>14.7</v>
+        <v>14.45</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
+        <v>14.45</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>14.7</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D9" si="2">D7+B8</f>
-        <v>15.2</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C15" si="3">D8</f>
-        <v>15.2</v>
+        <f t="shared" si="0"/>
+        <v>14.7</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D15" si="4">D8+B9</f>
+        <f t="shared" si="1"/>
         <v>15.45</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15.45</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
-        <v>16.2</v>
+        <f t="shared" si="1"/>
+        <v>15.7</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
-        <v>16.2</v>
+        <f t="shared" si="0"/>
+        <v>15.7</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
-        <v>16.45</v>
+        <f t="shared" si="1"/>
+        <v>15.95</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
-        <v>16.45</v>
+        <f t="shared" si="0"/>
+        <v>15.95</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
-        <v>17.45</v>
+        <f t="shared" si="1"/>
+        <v>16.95</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16.95</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>C17+B17</f>
+        <v>10.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>D17</f>
+        <v>10.5</v>
+      </c>
+      <c r="D18">
+        <f>D17+B18</f>
+        <v>11.5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.75</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C20" si="2">D18</f>
+        <v>11.5</v>
+      </c>
+      <c r="D19">
+        <f>D18+B19</f>
+        <v>12.25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12.25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="3">D19+B20</f>
+        <v>13.25</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C29" si="4">D20</f>
+        <v>13.25</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="5">D20+B21</f>
+        <v>14.25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <f>D23</f>
+        <v>15.5</v>
+      </c>
+      <c r="D24">
+        <f>D23+B24</f>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>0.25</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>17.45</v>
-      </c>
-      <c r="D14">
+      <c r="C26">
         <f t="shared" si="4"/>
-        <v>17.7</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>17.7</v>
-      </c>
-      <c r="D15">
+        <v>16.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>16.75</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>16.75</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0.75</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>17.75</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="4"/>
         <v>17.75</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <f>C18+B18</f>
-        <v>10.5</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f>D18</f>
-        <v>10.5</v>
-      </c>
-      <c r="D19">
-        <f>D18+B19</f>
-        <v>11.5</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.75</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:C21" si="5">D19</f>
-        <v>11.5</v>
-      </c>
-      <c r="D20">
-        <f>D19+B20</f>
-        <v>12.25</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="D29">
         <f t="shared" si="5"/>
-        <v>12.25</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21" si="6">D20+B21</f>
-        <v>13.25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:C30" si="7">D21</f>
-        <v>13.25</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:D30" si="8">D21+B22</f>
-        <v>14.25</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0.25</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="7"/>
-        <v>14.25</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="8"/>
-        <v>14.5</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="7"/>
-        <v>14.5</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="8"/>
-        <v>15.5</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="7"/>
-        <v>15.5</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="8"/>
-        <v>16.5</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0.25</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="7"/>
-        <v>16.5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="8"/>
-        <v>16.75</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>0.25</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="7"/>
-        <v>16.75</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>0.75</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="8"/>
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>0.25</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="7"/>
-        <v>17.75</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="E30">
         <v>2</v>
       </c>
     </row>

--- a/99-outline.xlsx
+++ b/99-outline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -629,7 +629,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +707,7 @@
         <v>11.7</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>12.7</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>13.95</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>14.45</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>14.7</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,7 +802,7 @@
         <v>15.45</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>15.7</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>15.95</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>16.7</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>16.95</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
